--- a/voetbal.xlsx
+++ b/voetbal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20002681\Documents\LESSEN\lessenPXL1819\data advanced\regulieren\PE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\School\data advanced\pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9499DBBD-911D-4CE6-9A38-B6586BF26C70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A714F9-4F89-4EEB-BB69-7399AF51E7B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="630" windowWidth="24060" windowHeight="14490" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gegevens" sheetId="1" r:id="rId1"/>
@@ -510,6 +510,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,7 +545,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +556,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -568,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -576,6 +585,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -997,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,6 +3052,15 @@
       <c r="H101">
         <v>131</v>
       </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <f>_xlfn.QUARTILE.INC(G2:G101,1)</f>
+        <v>22.075000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D107" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3067,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,7 +3165,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3179,7 +3200,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3228,7 +3249,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -3244,7 +3265,7 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3258,7 +3279,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3271,7 +3292,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B34" s="1" t="s">

--- a/voetbal.xlsx
+++ b/voetbal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\School\data advanced\pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A714F9-4F89-4EEB-BB69-7399AF51E7B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8A8075-D98C-4695-99C3-7F7F72C15F39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="630" windowWidth="24060" windowHeight="14490" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="570" windowWidth="23250" windowHeight="13725" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gegevens" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="157">
   <si>
     <t>naam</t>
   </si>
@@ -511,7 +511,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1009,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,10 +1023,12 @@
     <col min="6" max="6" width="9.7109375"/>
     <col min="7" max="7" width="8.5703125"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="8.5703125"/>
+    <col min="9" max="10" width="8.5703125"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1071,8 +1073,15 @@
       <c r="H2">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>SUMIF($C$2:$C$101,K2,$D$2:$D$101)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1100,15 @@
       <c r="H3">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="0">SUMIF($C$2:$C$101,K3,$D$2:$D$101)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1111,8 +1127,15 @@
       <c r="H4">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1131,8 +1154,15 @@
       <c r="H5">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1151,8 +1181,15 @@
       <c r="H6">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1209,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1230,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1250,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1270,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1253,7 +1290,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +1330,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1350,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1333,7 +1370,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3088,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3348,7 @@
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3328,7 +3365,7 @@
       <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3339,7 +3376,7 @@
       <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B41" s="1" t="s">

--- a/voetbal.xlsx
+++ b/voetbal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\School\data advanced\pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8A8075-D98C-4695-99C3-7F7F72C15F39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621319AD-B007-4E6B-97CC-202751682564}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="570" windowWidth="23250" windowHeight="13725" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25215" yWindow="1830" windowWidth="21600" windowHeight="11385" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gegevens" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +564,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -577,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -588,6 +594,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1011,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,7 +3117,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +3323,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="1" t="s">

--- a/voetbal.xlsx
+++ b/voetbal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\School\data advanced\pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621319AD-B007-4E6B-97CC-202751682564}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516555AD-14AF-40AD-96EB-26873CF49BD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25215" yWindow="1830" windowWidth="21600" windowHeight="11385" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="915" windowWidth="21600" windowHeight="11385" tabRatio="992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gegevens" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,12 +564,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -583,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -594,7 +588,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3132,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,7 +3316,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3394,7 +3387,7 @@
       <c r="A42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
